--- a/Code/Results/Cases/Case_8_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_31/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028735938606631</v>
+        <v>1.02214444034447</v>
       </c>
       <c r="D2">
-        <v>1.043796207035118</v>
+        <v>1.038202053465476</v>
       </c>
       <c r="E2">
-        <v>1.030970169542116</v>
+        <v>1.025355879101756</v>
       </c>
       <c r="F2">
-        <v>1.047742292218741</v>
+        <v>1.043358924592011</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.056070088256197</v>
+        <v>1.05290647189538</v>
       </c>
       <c r="J2">
-        <v>1.050089864790459</v>
+        <v>1.043682403165025</v>
       </c>
       <c r="K2">
-        <v>1.054677334432962</v>
+        <v>1.049153642073407</v>
       </c>
       <c r="L2">
-        <v>1.042014264695631</v>
+        <v>1.036472916433893</v>
       </c>
       <c r="M2">
-        <v>1.058574280316605</v>
+        <v>1.0542455258438</v>
       </c>
       <c r="N2">
-        <v>1.051581112845453</v>
+        <v>1.034089174664735</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.054929862951547</v>
+        <v>1.051504003082673</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.049731794660731</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.045834822344162</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024835254975597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033075972224174</v>
+        <v>1.025947826361582</v>
       </c>
       <c r="D3">
-        <v>1.046726590812646</v>
+        <v>1.040667862301176</v>
       </c>
       <c r="E3">
-        <v>1.034480235469952</v>
+        <v>1.028385558621003</v>
       </c>
       <c r="F3">
-        <v>1.050672668925437</v>
+        <v>1.045925929801046</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.057305021811626</v>
+        <v>1.053856986095992</v>
       </c>
       <c r="J3">
-        <v>1.052703839429952</v>
+        <v>1.045755280714994</v>
       </c>
       <c r="K3">
-        <v>1.056794566385748</v>
+        <v>1.050805546343988</v>
       </c>
       <c r="L3">
-        <v>1.044690154012965</v>
+        <v>1.038667679942894</v>
       </c>
       <c r="M3">
-        <v>1.060695776012012</v>
+        <v>1.05600306019408</v>
       </c>
       <c r="N3">
-        <v>1.054198799628761</v>
+        <v>1.035251320008436</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.056608849951242</v>
+        <v>1.052894951577631</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.051226194285793</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.046999926706524</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025199439927359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035832301859885</v>
+        <v>1.028366852125355</v>
       </c>
       <c r="D4">
-        <v>1.048592002703375</v>
+        <v>1.042240407330295</v>
       </c>
       <c r="E4">
-        <v>1.036714617651325</v>
+        <v>1.030317779458503</v>
       </c>
       <c r="F4">
-        <v>1.052540620640849</v>
+        <v>1.047565136790396</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.058081758368955</v>
+        <v>1.054454293557294</v>
       </c>
       <c r="J4">
-        <v>1.05436179774903</v>
+        <v>1.047071749327433</v>
       </c>
       <c r="K4">
-        <v>1.058137311197264</v>
+        <v>1.051854416984464</v>
       </c>
       <c r="L4">
-        <v>1.046389237691402</v>
+        <v>1.040063563502798</v>
       </c>
       <c r="M4">
-        <v>1.062043731162688</v>
+        <v>1.057121483039742</v>
       </c>
       <c r="N4">
-        <v>1.055859112438822</v>
+        <v>1.035989384263916</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.057675642171908</v>
+        <v>1.053780092868752</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.052176483438421</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.047742518553458</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025428249921888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036984336453784</v>
+        <v>1.029378288883886</v>
       </c>
       <c r="D5">
-        <v>1.049374865689288</v>
+        <v>1.042901125723997</v>
       </c>
       <c r="E5">
-        <v>1.037650491936485</v>
+        <v>1.031127619031958</v>
       </c>
       <c r="F5">
-        <v>1.053323694644388</v>
+        <v>1.048252847343306</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.058406673908929</v>
+        <v>1.054704257057257</v>
       </c>
       <c r="J5">
-        <v>1.055056200958518</v>
+        <v>1.047623537179001</v>
       </c>
       <c r="K5">
-        <v>1.058701182051296</v>
+        <v>1.052295612533157</v>
       </c>
       <c r="L5">
-        <v>1.047101034844284</v>
+        <v>1.040648776303501</v>
       </c>
       <c r="M5">
-        <v>1.06260893089299</v>
+        <v>1.057590905182098</v>
       </c>
       <c r="N5">
-        <v>1.056554501780517</v>
+        <v>1.036298737082407</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.058122949398296</v>
+        <v>1.054151602246756</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.052582226630452</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.048062262890013</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02552466792026</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037183535345982</v>
+        <v>1.029552717520363</v>
       </c>
       <c r="D6">
-        <v>1.049512951913288</v>
+        <v>1.043017829073864</v>
       </c>
       <c r="E6">
-        <v>1.037813342848358</v>
+        <v>1.031268208470531</v>
       </c>
       <c r="F6">
-        <v>1.053460082272092</v>
+        <v>1.048372501124262</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.058465328859132</v>
+        <v>1.054749679454838</v>
       </c>
       <c r="J6">
-        <v>1.05517866074243</v>
+        <v>1.047720899048362</v>
       </c>
       <c r="K6">
-        <v>1.058802471131499</v>
+        <v>1.052375432318726</v>
       </c>
       <c r="L6">
-        <v>1.047226254283924</v>
+        <v>1.040751647174451</v>
       </c>
       <c r="M6">
-        <v>1.062708726741454</v>
+        <v>1.057673900343252</v>
       </c>
       <c r="N6">
-        <v>1.056677135471368</v>
+        <v>1.036353321697153</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.05820192924646</v>
+        <v>1.054217286135546</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.052662442684222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.048128201115142</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025543002553679</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035865209940595</v>
+        <v>1.028423746999698</v>
       </c>
       <c r="D7">
-        <v>1.048621514710292</v>
+        <v>1.04228784025244</v>
       </c>
       <c r="E7">
-        <v>1.036743956468284</v>
+        <v>1.030370306633316</v>
       </c>
       <c r="F7">
-        <v>1.052565376581199</v>
+        <v>1.047604930370419</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.05809802715897</v>
+        <v>1.054483920791094</v>
       </c>
       <c r="J7">
-        <v>1.054388168176953</v>
+        <v>1.047121459164388</v>
       </c>
       <c r="K7">
-        <v>1.058163689755137</v>
+        <v>1.051898493682478</v>
       </c>
       <c r="L7">
-        <v>1.046415393017736</v>
+        <v>1.040112618685283</v>
       </c>
       <c r="M7">
-        <v>1.062065421124058</v>
+        <v>1.057158028143005</v>
       </c>
       <c r="N7">
-        <v>1.055885520315777</v>
+        <v>1.036068706797988</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.057692807925287</v>
+        <v>1.053809015346903</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.052214915560503</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.047795537512158</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02544398291209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030235922765952</v>
+        <v>1.023549235248368</v>
       </c>
       <c r="D8">
-        <v>1.044817058952665</v>
+        <v>1.03913137300562</v>
       </c>
       <c r="E8">
-        <v>1.032185674511959</v>
+        <v>1.026492248539746</v>
       </c>
       <c r="F8">
-        <v>1.048756660593081</v>
+        <v>1.044305066119359</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.056507285405005</v>
+        <v>1.053295871212826</v>
       </c>
       <c r="J8">
-        <v>1.051001978160405</v>
+        <v>1.044495700040339</v>
       </c>
       <c r="K8">
-        <v>1.055422338124366</v>
+        <v>1.04980614266942</v>
       </c>
       <c r="L8">
-        <v>1.042946629258821</v>
+        <v>1.037324935486089</v>
       </c>
       <c r="M8">
-        <v>1.059314338431775</v>
+        <v>1.054916564349992</v>
       </c>
       <c r="N8">
-        <v>1.052494521521004</v>
+        <v>1.03470121959157</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.055515557680565</v>
+        <v>1.052035076932726</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.050281117181359</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.046321085220987</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02499430498631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.019870302621906</v>
+        <v>1.014508913274689</v>
       </c>
       <c r="D9">
-        <v>1.037836659382698</v>
+        <v>1.033290470551045</v>
       </c>
       <c r="E9">
-        <v>1.023830506947424</v>
+        <v>1.019323455655875</v>
       </c>
       <c r="F9">
-        <v>1.041796538781811</v>
+        <v>1.038239188439335</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.053508211130996</v>
+        <v>1.050995727172583</v>
       </c>
       <c r="J9">
-        <v>1.044740387103699</v>
+        <v>1.039559525992114</v>
       </c>
       <c r="K9">
-        <v>1.050344304598329</v>
+        <v>1.045865574212404</v>
       </c>
       <c r="L9">
-        <v>1.036548430599603</v>
+        <v>1.032110614145301</v>
       </c>
       <c r="M9">
-        <v>1.054246034281479</v>
+        <v>1.050740896905073</v>
       </c>
       <c r="N9">
-        <v>1.046224038286784</v>
+        <v>1.031952834298212</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.051504405470984</v>
+        <v>1.048730360620465</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.046687572293073</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.043531482161314</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024111962082113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.012742921947353</v>
+        <v>1.008449859001586</v>
       </c>
       <c r="D10">
-        <v>1.033093738711861</v>
+        <v>1.029446804555592</v>
       </c>
       <c r="E10">
-        <v>1.018131690200871</v>
+        <v>1.014587685794052</v>
       </c>
       <c r="F10">
-        <v>1.037126086785629</v>
+        <v>1.034282011161279</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.051444161431195</v>
+        <v>1.049493946959025</v>
       </c>
       <c r="J10">
-        <v>1.040459923028298</v>
+        <v>1.036332189339824</v>
       </c>
       <c r="K10">
-        <v>1.046890122671661</v>
+        <v>1.043303991287463</v>
       </c>
       <c r="L10">
-        <v>1.032181110707216</v>
+        <v>1.028698457239544</v>
       </c>
       <c r="M10">
-        <v>1.05085588245002</v>
+        <v>1.04805870309942</v>
       </c>
       <c r="N10">
-        <v>1.04193749546142</v>
+        <v>1.030373842112125</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.048872160671254</v>
+        <v>1.046658537728277</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.04426190444101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.041738639287745</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023555188310032</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.010304221807917</v>
+        <v>1.00651006142821</v>
       </c>
       <c r="D11">
-        <v>1.031702784149561</v>
+        <v>1.028458345198305</v>
       </c>
       <c r="E11">
-        <v>1.016307935971983</v>
+        <v>1.013216096188934</v>
       </c>
       <c r="F11">
-        <v>1.036124091587947</v>
+        <v>1.033607398452076</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.051004830218665</v>
+        <v>1.049310488016601</v>
       </c>
       <c r="J11">
-        <v>1.039254528260042</v>
+        <v>1.035614499827335</v>
       </c>
       <c r="K11">
-        <v>1.046050613465662</v>
+        <v>1.042862819749712</v>
       </c>
       <c r="L11">
-        <v>1.030928725001156</v>
+        <v>1.027893007121347</v>
       </c>
       <c r="M11">
-        <v>1.050395466864479</v>
+        <v>1.047922189087511</v>
       </c>
       <c r="N11">
-        <v>1.040730388894332</v>
+        <v>1.030411277093285</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.048938802956138</v>
+        <v>1.046982471288017</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.043700808047751</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.041462458982251</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023570070623981</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.00965009719428</v>
+        <v>1.005975150974577</v>
       </c>
       <c r="D12">
-        <v>1.031432548326247</v>
+        <v>1.028279939380399</v>
       </c>
       <c r="E12">
-        <v>1.015879005809641</v>
+        <v>1.012889470887049</v>
       </c>
       <c r="F12">
-        <v>1.036129495943268</v>
+        <v>1.033689249816879</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.051014697458196</v>
+        <v>1.049372992561434</v>
       </c>
       <c r="J12">
-        <v>1.039051589221584</v>
+        <v>1.035528766910019</v>
       </c>
       <c r="K12">
-        <v>1.045981349187143</v>
+        <v>1.042884681298336</v>
       </c>
       <c r="L12">
-        <v>1.030708183664337</v>
+        <v>1.027773826274551</v>
       </c>
       <c r="M12">
-        <v>1.050595770195634</v>
+        <v>1.048198278521209</v>
       </c>
       <c r="N12">
-        <v>1.040527161659162</v>
+        <v>1.030554338146076</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.049420066157131</v>
+        <v>1.047524309425227</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.043651837022059</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.041477915235488</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023647051211953</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.010351501292253</v>
+        <v>1.006475628273068</v>
       </c>
       <c r="D13">
-        <v>1.032033197301297</v>
+        <v>1.028711855270039</v>
       </c>
       <c r="E13">
-        <v>1.016516672259201</v>
+        <v>1.013333546170271</v>
       </c>
       <c r="F13">
-        <v>1.036940873969292</v>
+        <v>1.034366299698752</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.051391400016938</v>
+        <v>1.049630411447754</v>
       </c>
       <c r="J13">
-        <v>1.039633093467398</v>
+        <v>1.035916805536497</v>
       </c>
       <c r="K13">
-        <v>1.046529326950138</v>
+        <v>1.043266647389352</v>
       </c>
       <c r="L13">
-        <v>1.031291140122007</v>
+        <v>1.02816648678402</v>
       </c>
       <c r="M13">
-        <v>1.051351213234289</v>
+        <v>1.04882151323109</v>
       </c>
       <c r="N13">
-        <v>1.041109491707704</v>
+        <v>1.030729577767915</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.050291339059612</v>
+        <v>1.048291535783404</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.044036803630581</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.041745257424717</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023778847121805</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.011456584072923</v>
+        <v>1.007301367706795</v>
       </c>
       <c r="D14">
-        <v>1.032848678740396</v>
+        <v>1.029296877664319</v>
       </c>
       <c r="E14">
-        <v>1.017446190542713</v>
+        <v>1.014000600957098</v>
       </c>
       <c r="F14">
-        <v>1.037873411579476</v>
+        <v>1.03511403045463</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.051820962640739</v>
+        <v>1.049903392892651</v>
       </c>
       <c r="J14">
-        <v>1.040395386941578</v>
+        <v>1.036408749271837</v>
       </c>
       <c r="K14">
-        <v>1.04719280452239</v>
+        <v>1.043702941064703</v>
       </c>
       <c r="L14">
-        <v>1.032062977709255</v>
+        <v>1.028679858865628</v>
       </c>
       <c r="M14">
-        <v>1.052130850010189</v>
+        <v>1.049418939340051</v>
       </c>
       <c r="N14">
-        <v>1.041872867726053</v>
+        <v>1.030871275930385</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.051079450620996</v>
+        <v>1.048935889724845</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.044507301059797</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.042055268821144</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023899002696988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.012029466925348</v>
+        <v>1.007739469771463</v>
       </c>
       <c r="D15">
-        <v>1.033248022983922</v>
+        <v>1.02958600085412</v>
       </c>
       <c r="E15">
-        <v>1.017913515817989</v>
+        <v>1.014343086679719</v>
       </c>
       <c r="F15">
-        <v>1.038293274021188</v>
+        <v>1.035445277780883</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.052012679112881</v>
+        <v>1.050021915894997</v>
       </c>
       <c r="J15">
-        <v>1.040762114123537</v>
+        <v>1.03664462168296</v>
       </c>
       <c r="K15">
-        <v>1.047500433709813</v>
+        <v>1.043901782091043</v>
       </c>
       <c r="L15">
-        <v>1.032435239135025</v>
+        <v>1.02892903526011</v>
       </c>
       <c r="M15">
-        <v>1.052459323154623</v>
+        <v>1.049659943527849</v>
       </c>
       <c r="N15">
-        <v>1.042240115702675</v>
+        <v>1.030924183452445</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.051376315189785</v>
+        <v>1.049163674242601</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.044730598237363</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.042202232817688</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023945817726559</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.014917607138834</v>
+        <v>1.010020188835789</v>
       </c>
       <c r="D16">
-        <v>1.035148423783553</v>
+        <v>1.030992068226872</v>
       </c>
       <c r="E16">
-        <v>1.020201667933807</v>
+        <v>1.016077954714446</v>
       </c>
       <c r="F16">
-        <v>1.040147272522902</v>
+        <v>1.036901761501707</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.05283086169169</v>
+        <v>1.050521404337331</v>
       </c>
       <c r="J16">
-        <v>1.042476678483146</v>
+        <v>1.037766282488102</v>
       </c>
       <c r="K16">
-        <v>1.048875891964956</v>
+        <v>1.044788321038507</v>
       </c>
       <c r="L16">
-        <v>1.034179873748483</v>
+        <v>1.030127016760267</v>
       </c>
       <c r="M16">
-        <v>1.053792948814847</v>
+        <v>1.050600425865395</v>
       </c>
       <c r="N16">
-        <v>1.043957114940338</v>
+        <v>1.031152942024368</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.052392025035825</v>
+        <v>1.049868570707797</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.045706196404958</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.042832467995988</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024112052674314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.01655617470872</v>
+        <v>1.011367330296217</v>
       </c>
       <c r="D17">
-        <v>1.036180886372012</v>
+        <v>1.031786694326142</v>
       </c>
       <c r="E17">
-        <v>1.021473303071748</v>
+        <v>1.017088329579368</v>
       </c>
       <c r="F17">
-        <v>1.041077490819503</v>
+        <v>1.037641130812934</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.053231832018084</v>
+        <v>1.050773872985282</v>
       </c>
       <c r="J17">
-        <v>1.043392661427384</v>
+        <v>1.038395579998692</v>
       </c>
       <c r="K17">
-        <v>1.049582940138695</v>
+        <v>1.045259433313279</v>
       </c>
       <c r="L17">
-        <v>1.035115019241976</v>
+        <v>1.030803228709303</v>
       </c>
       <c r="M17">
-        <v>1.054401677595479</v>
+        <v>1.051019864861627</v>
       </c>
       <c r="N17">
-        <v>1.044874398685422</v>
+        <v>1.031320008968367</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.052745306432087</v>
+        <v>1.050071969759673</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.046208645845283</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.043168364084218</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02418241170229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.017251224968772</v>
+        <v>1.011979946266854</v>
       </c>
       <c r="D18">
-        <v>1.036530721366412</v>
+        <v>1.032069946537815</v>
       </c>
       <c r="E18">
-        <v>1.021963839677031</v>
+        <v>1.017509938501373</v>
       </c>
       <c r="F18">
-        <v>1.041246380432997</v>
+        <v>1.037755964137676</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.053290927998636</v>
+        <v>1.050797165042815</v>
       </c>
       <c r="J18">
-        <v>1.043677978727217</v>
+        <v>1.038597882338044</v>
       </c>
       <c r="K18">
-        <v>1.049747333913936</v>
+        <v>1.045357156425474</v>
       </c>
       <c r="L18">
-        <v>1.035413920779111</v>
+        <v>1.031033120767821</v>
       </c>
       <c r="M18">
-        <v>1.054389202418403</v>
+        <v>1.050953321609958</v>
       </c>
       <c r="N18">
-        <v>1.045160121168547</v>
+        <v>1.031352072543789</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.052500175023713</v>
+        <v>1.049783540963918</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.0463133918315</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.043224808079434</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024154532859688</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.01711944562621</v>
+        <v>1.011924453623214</v>
       </c>
       <c r="D19">
-        <v>1.036291335173574</v>
+        <v>1.031895908874491</v>
       </c>
       <c r="E19">
-        <v>1.021775220379692</v>
+        <v>1.017397342880603</v>
       </c>
       <c r="F19">
-        <v>1.040742311424699</v>
+        <v>1.037302337275637</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.053062626869497</v>
+        <v>1.050618208814449</v>
       </c>
       <c r="J19">
-        <v>1.043420002204516</v>
+        <v>1.038412376716429</v>
       </c>
       <c r="K19">
-        <v>1.049450369220992</v>
+        <v>1.045124171617094</v>
       </c>
       <c r="L19">
-        <v>1.03516579392715</v>
+        <v>1.030859413358838</v>
       </c>
       <c r="M19">
-        <v>1.05383200310878</v>
+        <v>1.050445553995991</v>
       </c>
       <c r="N19">
-        <v>1.044901778289593</v>
+        <v>1.031225162591189</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.051737828432039</v>
+        <v>1.049059421171814</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.046109745442338</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.043067038695992</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.02404294499435</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.014641738828738</v>
+        <v>1.009968612673274</v>
       </c>
       <c r="D20">
-        <v>1.034375240375842</v>
+        <v>1.03041611496701</v>
       </c>
       <c r="E20">
-        <v>1.0196562888488</v>
+        <v>1.015763232128768</v>
       </c>
       <c r="F20">
-        <v>1.038377856677247</v>
+        <v>1.035283019185504</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.052016813205138</v>
+        <v>1.049862924821922</v>
       </c>
       <c r="J20">
-        <v>1.041619684417932</v>
+        <v>1.037120596624657</v>
       </c>
       <c r="K20">
-        <v>1.04783942386029</v>
+        <v>1.043944418047905</v>
       </c>
       <c r="L20">
-        <v>1.033362092918654</v>
+        <v>1.029534453727448</v>
       </c>
       <c r="M20">
-        <v>1.051777853323088</v>
+        <v>1.048732589501467</v>
       </c>
       <c r="N20">
-        <v>1.043098903845253</v>
+        <v>1.030622625320923</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.049591375886654</v>
+        <v>1.047181396461445</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.044974651864526</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.042237202716882</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023690880452267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.009142083196668</v>
+        <v>1.005749851468347</v>
       </c>
       <c r="D21">
-        <v>1.030680247982773</v>
+        <v>1.027769184501813</v>
       </c>
       <c r="E21">
-        <v>1.015248027851178</v>
+        <v>1.012542370846746</v>
       </c>
       <c r="F21">
-        <v>1.034674390563957</v>
+        <v>1.032424582230493</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.050357558387465</v>
+        <v>1.048898906207308</v>
       </c>
       <c r="J21">
-        <v>1.038262488719981</v>
+        <v>1.035009125403653</v>
       </c>
       <c r="K21">
-        <v>1.045102788056139</v>
+        <v>1.04224289120929</v>
       </c>
       <c r="L21">
-        <v>1.029946167586987</v>
+        <v>1.027289957469087</v>
       </c>
       <c r="M21">
-        <v>1.049027333435314</v>
+        <v>1.04681664183384</v>
       </c>
       <c r="N21">
-        <v>1.039736940544336</v>
+        <v>1.030241227753712</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.047374204040921</v>
+        <v>1.045624604264569</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.04304299213734</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.041037707977384</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023360447527258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.0056328868748</v>
+        <v>1.003046067492246</v>
       </c>
       <c r="D22">
-        <v>1.028335430769237</v>
+        <v>1.026087316484608</v>
       </c>
       <c r="E22">
-        <v>1.012446215476794</v>
+        <v>1.010489538756243</v>
       </c>
       <c r="F22">
-        <v>1.03235549155164</v>
+        <v>1.030640541785284</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.049300389173186</v>
+        <v>1.048282276060362</v>
       </c>
       <c r="J22">
-        <v>1.036127822363051</v>
+        <v>1.033653145220784</v>
       </c>
       <c r="K22">
-        <v>1.043365708179614</v>
+        <v>1.041159107471555</v>
       </c>
       <c r="L22">
-        <v>1.027775077922013</v>
+        <v>1.025856021062295</v>
       </c>
       <c r="M22">
-        <v>1.047312121313878</v>
+        <v>1.04562849798538</v>
       </c>
       <c r="N22">
-        <v>1.037599242716329</v>
+        <v>1.029949659525357</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.046016740185316</v>
+        <v>1.04468427409199</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.041801471476253</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.040256758244017</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023152207739057</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.007482596628224</v>
+        <v>1.004423818840581</v>
       </c>
       <c r="D23">
-        <v>1.029563936053891</v>
+        <v>1.026928326651378</v>
       </c>
       <c r="E23">
-        <v>1.013919206922838</v>
+        <v>1.011520823843967</v>
       </c>
       <c r="F23">
-        <v>1.033574382193318</v>
+        <v>1.031545905653822</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.049851567509446</v>
+        <v>1.048573059071488</v>
       </c>
       <c r="J23">
-        <v>1.037246827665454</v>
+        <v>1.034316724103999</v>
       </c>
       <c r="K23">
-        <v>1.044271832106574</v>
+        <v>1.041683647961246</v>
       </c>
       <c r="L23">
-        <v>1.028913328699327</v>
+        <v>1.026559847070069</v>
       </c>
       <c r="M23">
-        <v>1.04821071622995</v>
+        <v>1.046218345338457</v>
       </c>
       <c r="N23">
-        <v>1.038719837134614</v>
+        <v>1.030004054246245</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.046727912079932</v>
+        <v>1.045151095885629</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.042432591790744</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.040617133993221</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023241789428023</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.01463621202539</v>
+        <v>1.009970943602131</v>
       </c>
       <c r="D24">
-        <v>1.034339938419395</v>
+        <v>1.03038728051509</v>
       </c>
       <c r="E24">
-        <v>1.019636510746831</v>
+        <v>1.015751558530286</v>
       </c>
       <c r="F24">
-        <v>1.038312786398393</v>
+        <v>1.035222970819984</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.051979376915515</v>
+        <v>1.04983090466388</v>
       </c>
       <c r="J24">
-        <v>1.04158226520392</v>
+        <v>1.037090500070721</v>
       </c>
       <c r="K24">
-        <v>1.047789698832187</v>
+        <v>1.043900979108924</v>
       </c>
       <c r="L24">
-        <v>1.033327344703097</v>
+        <v>1.029507592685213</v>
       </c>
       <c r="M24">
-        <v>1.051698910734145</v>
+        <v>1.048658532891708</v>
       </c>
       <c r="N24">
-        <v>1.043061431491666</v>
+        <v>1.030597896479574</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.049488555417276</v>
+        <v>1.047082325829494</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.044912420182708</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.042176677581666</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023669304222824</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.022631613196705</v>
+        <v>1.016872633071931</v>
       </c>
       <c r="D25">
-        <v>1.039703046472109</v>
+        <v>1.03482026415964</v>
       </c>
       <c r="E25">
-        <v>1.026055699560527</v>
+        <v>1.021190092504821</v>
       </c>
       <c r="F25">
-        <v>1.043647576817802</v>
+        <v>1.039824128267172</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.054325106647559</v>
+        <v>1.051602223029419</v>
       </c>
       <c r="J25">
-        <v>1.046420621347413</v>
+        <v>1.040845208930055</v>
       </c>
       <c r="K25">
-        <v>1.051714773677924</v>
+        <v>1.046901060154539</v>
       </c>
       <c r="L25">
-        <v>1.038262564420727</v>
+        <v>1.03346812999898</v>
       </c>
       <c r="M25">
-        <v>1.055604102765717</v>
+        <v>1.051834153137798</v>
       </c>
       <c r="N25">
-        <v>1.047906658655849</v>
+        <v>1.032608380687654</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.052579208765608</v>
+        <v>1.049595589391139</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.047684752401467</v>
+        <v>1.044294701771331</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024345398853145</v>
       </c>
     </row>
   </sheetData>
